--- a/Zeta-Potential_Plots/20240122_Zeta_IP_serum.xlsx
+++ b/Zeta-Potential_Plots/20240122_Zeta_IP_serum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/aryellewright_mines_edu/Documents/Research/Kumar Research Lab/Aryelle's Lab Notebook/DLS-Zeta Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905A2692-B172-1F42-AB33-1672D51D7A42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC013C9-7CE8-9F49-8C79-7694BEE82EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="3560" windowWidth="17800" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Polymer</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>serum</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -119,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +447,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,7 +490,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>-0.57666666666666677</v>
@@ -499,7 +501,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>-0.40333333333333332</v>
